--- a/Na d line splitting/data_Na_d.xlsx
+++ b/Na d line splitting/data_Na_d.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER.DESKTOP-AET6VDV\Desktop\sem 5\optics lab\Optics lab codes and data\Na d line splitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C72D3-E98C-41F2-931D-F6903F8423A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C431B7-5857-4CA5-89D3-A0FF02DCE5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>Data set</t>
   </si>
@@ -97,15 +98,61 @@
   </si>
   <si>
     <t>Avg delta lambda</t>
+  </si>
+  <si>
+    <t>D(theoretical)(rad/m)</t>
+  </si>
+  <si>
+    <t>D(calculated)(rad/m)</t>
+  </si>
+  <si>
+    <t>D(m=1)</t>
+  </si>
+  <si>
+    <t>D(m=2)</t>
+  </si>
+  <si>
+    <t>Calcu</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Least count = 1/180 degrees, Grating element = 1/600 mm</t>
+  </si>
+  <si>
+    <t>Error in lambda</t>
+  </si>
+  <si>
+    <t>Error in D</t>
+  </si>
+  <si>
+    <t>delta_lambda_1</t>
+  </si>
+  <si>
+    <t>delta_lambda_2</t>
+  </si>
+  <si>
+    <t>lambda1 std</t>
+  </si>
+  <si>
+    <t>lambda2 std</t>
+  </si>
+  <si>
+    <t>delta_D1</t>
+  </si>
+  <si>
+    <t>dleta_D2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="168" formatCode="##0.0000E+0"/>
+    <numFmt numFmtId="165" formatCode="##0.0000E+0"/>
+    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,44 +206,16 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -206,36 +225,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,504 +557,518 @@
     <col min="16" max="17" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="20" max="21" width="19.6640625" customWidth="1"/>
     <col min="22" max="22" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="T2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="1" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>135.666</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
-        <f>D4+(1/180)*E4</f>
+      <c r="F5" s="2">
+        <f>D5+(1/180)*E5</f>
         <v>135.72155555555554</v>
-      </c>
-      <c r="G4" s="2">
-        <v>315.666</v>
-      </c>
-      <c r="H4" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2">
-        <f>G4+(1/180)*H4</f>
-        <v>315.77711111111108</v>
-      </c>
-      <c r="J4" s="2">
-        <v>177.333</v>
-      </c>
-      <c r="K4" s="2">
-        <v>23</v>
-      </c>
-      <c r="L4" s="2">
-        <f>J4+(1/180)*K4</f>
-        <v>177.46077777777776</v>
-      </c>
-      <c r="M4" s="2">
-        <v>357.33300000000003</v>
-      </c>
-      <c r="N4" s="2">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2">
-        <f>M4+(1/180)*N4</f>
-        <v>357.483</v>
-      </c>
-      <c r="P4" s="2">
-        <f>L4-F4</f>
-        <v>41.739222222222224</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>O4-I4</f>
-        <v>41.705888888888921</v>
-      </c>
-      <c r="R4" s="2">
-        <f>(P4+Q4)/4</f>
-        <v>20.861277777777786</v>
-      </c>
-      <c r="S4" s="16">
-        <f>0.001*SIN(RADIANS(R4))/600</f>
-        <v>5.9351092372463101E-7</v>
-      </c>
-      <c r="U4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="18">
-        <f>AVERAGE(S6,S4,S8,S10)</f>
-        <v>5.9349325572290874E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>135.333</v>
-      </c>
-      <c r="E5" s="2">
-        <v>58</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ref="F5:F11" si="0">D5+(1/180)*E5</f>
-        <v>135.65522222222222</v>
       </c>
       <c r="G5" s="2">
         <v>315.666</v>
       </c>
       <c r="H5" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I11" si="1">G5+(1/180)*H5</f>
-        <v>315.71600000000001</v>
+        <f>G5+(1/180)*H5</f>
+        <v>315.77711111111108</v>
       </c>
       <c r="J5" s="2">
         <v>177.333</v>
       </c>
       <c r="K5" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:L11" si="2">J5+(1/180)*K5</f>
-        <v>177.483</v>
+        <f>J5+(1/180)*K5</f>
+        <v>177.46077777777776</v>
       </c>
       <c r="M5" s="2">
         <v>357.33300000000003</v>
       </c>
       <c r="N5" s="2">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2">
+        <f>M5+(1/180)*N5</f>
+        <v>357.483</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5:P12" si="0">L5-F5</f>
+        <v>41.739222222222224</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>O5-I5</f>
+        <v>41.705888888888921</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:R12" si="1">(P5+Q5)/4</f>
+        <v>20.861277777777786</v>
+      </c>
+      <c r="S5" s="11">
+        <f>0.001*SIN(RADIANS(R5))/600</f>
+        <v>5.9351092372463101E-7</v>
+      </c>
+      <c r="T5" s="15">
+        <f>RADIANS(R6-R5)/(S6-S5)</f>
+        <v>642183.95527029363</v>
+      </c>
+      <c r="U5" s="7">
+        <f>1000 * 600/(COS(RADIANS(R5)))</f>
+        <v>642092.12085071811</v>
+      </c>
+      <c r="V5" s="2">
+        <f>COS(RADIANS(R5))/(1*600*1000*180)</f>
+        <v>8.6522718082802691E-9</v>
+      </c>
+      <c r="W5" s="2">
+        <f>(1*600*1000*(TAN(RADIANS(R5))))/(180*COS(RADIANS(R5)))</f>
+        <v>1359.4113542088191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>135.333</v>
+      </c>
+      <c r="E6" s="2">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F12" si="2">D6+(1/180)*E6</f>
+        <v>135.65522222222222</v>
+      </c>
+      <c r="G6" s="2">
+        <v>315.666</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I12" si="3">G6+(1/180)*H6</f>
+        <v>315.71600000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>177.333</v>
+      </c>
+      <c r="K6" s="2">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:L12" si="4">J6+(1/180)*K6</f>
+        <v>177.483</v>
+      </c>
+      <c r="M6" s="2">
+        <v>357.33300000000003</v>
+      </c>
+      <c r="N6" s="2">
         <v>31</v>
       </c>
-      <c r="O5" s="2">
-        <f t="shared" ref="O5:O11" si="3">M5+(1/180)*N5</f>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O12" si="5">M6+(1/180)*N6</f>
         <v>357.50522222222224</v>
       </c>
-      <c r="P5" s="2">
-        <f t="shared" ref="P5:P11" si="4">L5-F5</f>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
         <v>41.827777777777783</v>
       </c>
-      <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q11" si="5">O5-I5</f>
+      <c r="Q6" s="2">
+        <f>O6-I6</f>
         <v>41.789222222222236</v>
       </c>
-      <c r="R5" s="2">
-        <f t="shared" ref="R5:R11" si="6">(P5+Q5)/4</f>
+      <c r="R6" s="2">
+        <f t="shared" si="1"/>
         <v>20.904250000000005</v>
       </c>
-      <c r="S5" s="16">
-        <f>0.001*SIN(RADIANS(R5))/600</f>
+      <c r="S6" s="11">
+        <f>0.001*SIN(RADIANS(R6))/600</f>
         <v>5.946788239166573E-7</v>
       </c>
-      <c r="T5" s="17">
-        <f>S5-S4</f>
-        <v>1.1679001920262954E-9</v>
-      </c>
-      <c r="U5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="18">
-        <f>AVERAGE(S5,S7,S9,S11)</f>
-        <v>5.9441913508864055E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="7">
+        <f>1000 * 600/(COS(RADIANS(R6)))</f>
+        <v>642275.87618572556</v>
+      </c>
+      <c r="V6" s="2">
+        <f>COS(RADIANS(R6))/(1*600*1000*180)</f>
+        <v>8.6497963905296482E-9</v>
+      </c>
+      <c r="W6" s="2">
+        <f>(1*600*1000*(TAN(RADIANS(R6))))/(180*COS(RADIANS(R6)))</f>
+        <v>1362.8661008898332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>111</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>111.23333333333333</v>
-      </c>
-      <c r="G6" s="2">
-        <v>291</v>
-      </c>
-      <c r="H6" s="2">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>291.24444444444447</v>
-      </c>
-      <c r="J6" s="2">
-        <v>202</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="2"/>
-        <v>202.02777777777777</v>
-      </c>
-      <c r="M6" s="2">
-        <v>22</v>
-      </c>
-      <c r="N6" s="2">
-        <v>15</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>22.083333333333332</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="4"/>
-        <v>90.794444444444437</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>360+O6-I6</f>
-        <v>90.838888888888846</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="6"/>
-        <v>45.408333333333317</v>
-      </c>
-      <c r="S6" s="16">
-        <f>0.001*SIN(RADIANS(R6))/1200</f>
-        <v>5.9344013540119886E-7</v>
-      </c>
-      <c r="U6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="17">
-        <f>AVERAGE(T5,T7,T9,T11)</f>
-        <v>9.258793657318353E-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>111</v>
       </c>
       <c r="E7" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>111.15</v>
+        <f t="shared" si="2"/>
+        <v>111.23333333333333</v>
       </c>
       <c r="G7" s="2">
         <v>291</v>
       </c>
       <c r="H7" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>291.14999999999998</v>
+        <f t="shared" si="3"/>
+        <v>291.24444444444447</v>
       </c>
       <c r="J7" s="2">
         <v>202</v>
       </c>
       <c r="K7" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
-        <v>202.1</v>
+        <f t="shared" si="4"/>
+        <v>202.02777777777777</v>
       </c>
       <c r="M7" s="2">
         <v>22</v>
       </c>
       <c r="N7" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="3"/>
-        <v>22.155555555555555</v>
+        <f t="shared" si="5"/>
+        <v>22.083333333333332</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="4"/>
-        <v>90.949999999999989</v>
+        <f t="shared" si="0"/>
+        <v>90.794444444444437</v>
       </c>
       <c r="Q7" s="2">
         <f>360+O7-I7</f>
+        <v>90.838888888888846</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="1"/>
+        <v>45.408333333333317</v>
+      </c>
+      <c r="S7" s="11">
+        <f>0.001*SIN(RADIANS(R7))/1200</f>
+        <v>5.9344013540119886E-7</v>
+      </c>
+      <c r="T7" s="15">
+        <f>RADIANS(R8-R7)/(S8-S7)</f>
+        <v>1710501.4921058179</v>
+      </c>
+      <c r="U7" s="7">
+        <f>(1000*2*600)/(COS(RADIANS(R7)))</f>
+        <v>1709281.2182768811</v>
+      </c>
+      <c r="V7" s="2">
+        <f>COS(RADIANS(R7))/(2*600*1000*180)</f>
+        <v>3.2502290998997151E-9</v>
+      </c>
+      <c r="W7" s="2">
+        <f>(2*600*1000*(TAN(RADIANS(R7))))/(180*COS(RADIANS(R7)))</f>
+        <v>9632.3321783824249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>111.15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>291</v>
+      </c>
+      <c r="H8" s="2">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>291.14999999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>202</v>
+      </c>
+      <c r="K8" s="2">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>202.1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2">
+        <v>28</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="5"/>
+        <v>22.155555555555555</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>90.949999999999989</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>360+O8-I8</f>
         <v>91.005555555555588</v>
       </c>
-      <c r="R7" s="2">
-        <f t="shared" si="6"/>
+      <c r="R8" s="2">
+        <f t="shared" si="1"/>
         <v>45.488888888888894</v>
       </c>
-      <c r="S7" s="16">
-        <f>0.001*SIN(RADIANS(R7))/1200</f>
+      <c r="S8" s="11">
+        <f>0.001*SIN(RADIANS(R8))/1200</f>
         <v>5.9426209298598128E-7</v>
       </c>
-      <c r="T7" s="17">
-        <f>S7-S6</f>
-        <v>8.2195758478242319E-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="T8" s="15"/>
+      <c r="U8" s="7">
+        <f>(1000*2*600)/(COS(RADIANS(R8)))</f>
+        <v>1711724.0738491751</v>
+      </c>
+      <c r="V8" s="2">
+        <f>COS(RADIANS(R8))/(2*600*1000*180)</f>
+        <v>3.2455905951376313E-9</v>
+      </c>
+      <c r="W8" s="2">
+        <f>(2*600*1000*(TAN(RADIANS(R8))))/(180*COS(RADIANS(R8)))</f>
+        <v>9673.2639968538351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>135.666</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>135.74933333333334</v>
-      </c>
-      <c r="G8" s="2">
-        <v>315.666</v>
-      </c>
-      <c r="H8" s="2">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>315.82155555555556</v>
-      </c>
-      <c r="J8" s="2">
-        <v>177.333</v>
-      </c>
-      <c r="K8" s="2">
-        <v>29</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
-        <v>177.4941111111111</v>
-      </c>
-      <c r="M8" s="2">
-        <v>357.33300000000003</v>
-      </c>
-      <c r="N8" s="2">
-        <v>34</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="3"/>
-        <v>357.5218888888889</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="4"/>
-        <v>41.744777777777756</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="5"/>
-        <v>41.700333333333333</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="6"/>
-        <v>20.861277777777772</v>
-      </c>
-      <c r="S8" s="16">
-        <f>0.001*SIN(RADIANS(R8))/600</f>
-        <v>5.9351092372463058E-7</v>
-      </c>
-      <c r="T8" s="17"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>135.666</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>135.68822222222221</v>
+        <f t="shared" si="2"/>
+        <v>135.74933333333334</v>
       </c>
       <c r="G9" s="2">
         <v>315.666</v>
       </c>
       <c r="H9" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>315.74933333333331</v>
+        <f t="shared" si="3"/>
+        <v>315.82155555555556</v>
       </c>
       <c r="J9" s="2">
         <v>177.333</v>
@@ -1047,7 +1077,7 @@
         <v>29</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>177.4941111111111</v>
       </c>
       <c r="M9" s="2">
@@ -1057,185 +1087,276 @@
         <v>34</v>
       </c>
       <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>357.5218888888889</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>41.744777777777756</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>O9-I9</f>
+        <v>41.700333333333333</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="1"/>
+        <v>20.861277777777772</v>
+      </c>
+      <c r="S9" s="11">
+        <f>0.001*SIN(RADIANS(R9))/600</f>
+        <v>5.9351092372463058E-7</v>
+      </c>
+      <c r="T9" s="15">
+        <f>RADIANS(R10-R9)/(S10-S9)</f>
+        <v>642163.34358093084</v>
+      </c>
+      <c r="U9" s="7">
+        <f>1000 * 600/(COS(RADIANS(R9)))</f>
+        <v>642092.12085071811</v>
+      </c>
+      <c r="V9" s="2">
+        <f>COS(RADIANS(R9))/(1*600*1000*180)</f>
+        <v>8.6522718082802691E-9</v>
+      </c>
+      <c r="W9" s="2">
+        <f>(1*600*1000*(TAN(RADIANS(R9))))/(180*COS(RADIANS(R9)))</f>
+        <v>1359.4113542088182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>135.666</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>135.68822222222221</v>
+      </c>
+      <c r="G10" s="2">
+        <v>315.666</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="3"/>
+        <v>315.74933333333331</v>
+      </c>
+      <c r="J10" s="2">
+        <v>177.333</v>
+      </c>
+      <c r="K10" s="2">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="4"/>
+        <v>177.4941111111111</v>
+      </c>
+      <c r="M10" s="2">
+        <v>357.33300000000003</v>
+      </c>
+      <c r="N10" s="2">
+        <v>34</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
         <v>357.5218888888889</v>
       </c>
-      <c r="P9" s="2">
-        <f t="shared" si="4"/>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
         <v>41.805888888888887</v>
       </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="5"/>
+      <c r="Q10" s="2">
+        <f>O10-I10</f>
         <v>41.772555555555584</v>
       </c>
-      <c r="R9" s="2">
-        <f t="shared" si="6"/>
+      <c r="R10" s="2">
+        <f t="shared" si="1"/>
         <v>20.894611111111118</v>
       </c>
-      <c r="S9" s="16">
-        <f>0.001*SIN(RADIANS(R9))/600</f>
+      <c r="S10" s="11">
+        <f>0.001*SIN(RADIANS(R10))/600</f>
         <v>5.9441688701753277E-7</v>
       </c>
-      <c r="T9" s="17">
-        <f>S9-S8</f>
-        <v>9.0596329290218636E-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13" t="s">
+      <c r="T10" s="15"/>
+      <c r="U10" s="7">
+        <f>1000 * 600/(COS(RADIANS(R10)))</f>
+        <v>642234.61834628042</v>
+      </c>
+      <c r="V10" s="2">
+        <f>COS(RADIANS(R10))/(1*600*1000*180)</f>
+        <v>8.6503520627100605E-9</v>
+      </c>
+      <c r="W10" s="2">
+        <f>(1*600*1000*(TAN(RADIANS(R10))))/(180*COS(RADIANS(R10)))</f>
+        <v>1362.090792234774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>111</v>
-      </c>
-      <c r="E10" s="2">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>111.22777777777777</v>
-      </c>
-      <c r="G10" s="2">
-        <v>291</v>
-      </c>
-      <c r="H10" s="2">
-        <v>41</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>291.22777777777776</v>
-      </c>
-      <c r="J10" s="2">
-        <v>202</v>
-      </c>
-      <c r="K10" s="2">
-        <v>6</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="2"/>
-        <v>202.03333333333333</v>
-      </c>
-      <c r="M10" s="2">
-        <v>22</v>
-      </c>
-      <c r="N10" s="2">
-        <v>15</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="3"/>
-        <v>22.083333333333332</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="4"/>
-        <v>90.805555555555557</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>360+O10-I10</f>
-        <v>90.855555555555554</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="6"/>
-        <v>45.415277777777774</v>
-      </c>
-      <c r="S10" s="16">
-        <f>0.001*SIN(RADIANS(R10))/1200</f>
-        <v>5.9351104004117442E-7</v>
-      </c>
-      <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D11" s="2">
         <v>111</v>
       </c>
       <c r="E11" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>111.14444444444445</v>
+        <f t="shared" si="2"/>
+        <v>111.22777777777777</v>
       </c>
       <c r="G11" s="2">
         <v>291</v>
       </c>
       <c r="H11" s="2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>291.13888888888891</v>
+        <f t="shared" si="3"/>
+        <v>291.22777777777776</v>
       </c>
       <c r="J11" s="2">
         <v>202</v>
       </c>
       <c r="K11" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="2"/>
-        <v>202.11111111111111</v>
+        <f t="shared" si="4"/>
+        <v>202.03333333333333</v>
       </c>
       <c r="M11" s="2">
         <v>22</v>
       </c>
       <c r="N11" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="3"/>
-        <v>22.15</v>
+        <f t="shared" si="5"/>
+        <v>22.083333333333332</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="4"/>
-        <v>90.966666666666669</v>
+        <f t="shared" si="0"/>
+        <v>90.805555555555557</v>
       </c>
       <c r="Q11" s="2">
         <f>360+O11-I11</f>
+        <v>90.855555555555554</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="1"/>
+        <v>45.415277777777774</v>
+      </c>
+      <c r="S11" s="11">
+        <f>0.001*SIN(RADIANS(R11))/1200</f>
+        <v>5.9351104004117442E-7</v>
+      </c>
+      <c r="T11" s="15">
+        <f>RADIANS(R12-R11)/(S12-S11)</f>
+        <v>1710691.0502097309</v>
+      </c>
+      <c r="U11" s="7">
+        <f>(1000*2*600)/(COS(RADIANS(R11)))</f>
+        <v>1709491.4015624125</v>
+      </c>
+      <c r="V11" s="2">
+        <f>COS(RADIANS(R11))/(2*600*1000*180)</f>
+        <v>3.2498294817265421E-9</v>
+      </c>
+      <c r="W11" s="2">
+        <f>(2*600*1000*(TAN(RADIANS(R11))))/(180*COS(RADIANS(R11)))</f>
+        <v>9635.8523814195742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>111</v>
+      </c>
+      <c r="E12" s="2">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>111.14444444444445</v>
+      </c>
+      <c r="G12" s="2">
+        <v>291</v>
+      </c>
+      <c r="H12" s="2">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>291.13888888888891</v>
+      </c>
+      <c r="J12" s="2">
+        <v>202</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="4"/>
+        <v>202.11111111111111</v>
+      </c>
+      <c r="M12" s="2">
+        <v>22</v>
+      </c>
+      <c r="N12" s="2">
+        <v>27</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="5"/>
+        <v>22.15</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>90.966666666666669</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>360+O12-I12</f>
         <v>91.011111111111063</v>
       </c>
-      <c r="R11" s="2">
-        <f t="shared" si="6"/>
+      <c r="R12" s="2">
+        <f t="shared" si="1"/>
         <v>45.494444444444433</v>
       </c>
-      <c r="S11" s="16">
-        <f>0.001*SIN(RADIANS(R11))/1200</f>
+      <c r="S12" s="11">
+        <f>0.001*SIN(RADIANS(R12))/1200</f>
         <v>5.9431873643439085E-7</v>
       </c>
-      <c r="T11" s="17">
-        <f>S11-S10</f>
-        <v>8.0769639321643625E-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T12" s="15"/>
+      <c r="U12" s="7">
+        <f>(1000*2*600)/(COS(RADIANS(R12)))</f>
+        <v>1711892.9288569451</v>
+      </c>
+      <c r="V12" s="2">
+        <f>COS(RADIANS(R12))/(2*600*1000*180)</f>
+        <v>3.2452704616667109E-9</v>
+      </c>
+      <c r="W12" s="2">
+        <f>(2*600*1000*(TAN(RADIANS(R12))))/(180*COS(RADIANS(R12)))</f>
+        <v>9676.0947628564682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1256,7 +1377,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1273,14 +1394,22 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="Q14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="12">
+        <f>_xlfn.STDEV.S(S5,S7,S9,S11)</f>
+        <v>3.5413590255893565E-11</v>
+      </c>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="X14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1294,14 +1423,37 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="Q15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="4">
+        <f>_xlfn.STDEV.S(S6,S8,S10,S12)</f>
+        <v>1.8455843970877585E-10</v>
+      </c>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="U15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V15" s="9">
+        <f>AVERAGE(S7,S5,S9,S11)</f>
+        <v>5.9349325572290874E-7</v>
+      </c>
+      <c r="X15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="10">
+        <f>AVERAGE(T9,T5)</f>
+        <v>642173.6494256123</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB15" s="10">
+        <f>AVERAGE(U5:U6,U9:U10)</f>
+        <v>642173.68405836052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1318,11 +1470,33 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="T16" s="8">
+        <f>S6-S5</f>
+        <v>1.1679001920262954E-9</v>
+      </c>
+      <c r="U16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="9">
+        <f>AVERAGE(S6,S8,S10,S12)</f>
+        <v>5.9441913508864055E-7</v>
+      </c>
+      <c r="X16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="10">
+        <f>AVERAGE(T7,T11)</f>
+        <v>1710596.2711577744</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="10">
+        <f>AVERAGE(U7:U8,U11:U12)</f>
+        <v>1710597.4056363534</v>
+      </c>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1339,11 +1513,15 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="8">
+        <f>AVERAGE(T16,T18,T20,T22)</f>
+        <v>9.258793657318353E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1360,11 +1538,12 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="T18" s="8">
+        <f>S8-S7</f>
+        <v>8.2195758478242319E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1381,30 +1560,351 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
+      <c r="T19" s="8"/>
+      <c r="X19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19">
+        <f>MAX(V5,V7,V9,V11)</f>
+        <v>8.6522718082802691E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="8">
+        <f>S10-S9</f>
+        <v>9.0596329290218636E-10</v>
+      </c>
+      <c r="X20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20">
+        <f>MAX(V6,V8,V10,V12)</f>
+        <v>8.6503520627100605E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="T22" s="8">
+        <f>S12-S11</f>
+        <v>8.0769639321643625E-10</v>
+      </c>
+      <c r="X22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y22">
+        <f>AVERAGE(W5:W6,W9:W10)</f>
+        <v>1360.9449003855611</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="X23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y23">
+        <f>AVERAGE(W7:W8,W11:W12)</f>
+        <v>9654.385829878076</v>
+      </c>
+    </row>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="U24" s="9">
+        <f>V16-V15</f>
+        <v>9.2587936573180883E-10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+  <mergeCells count="28">
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P2:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729F84A8-7245-4635-AB72-CD52325E2EEA}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>20.861277777777786</v>
+      </c>
+      <c r="E4">
+        <v>5.9351092372463101E-7</v>
+      </c>
+      <c r="F4">
+        <v>8.6522718082802691E-9</v>
+      </c>
+      <c r="G4">
+        <v>1359.4113542088191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>20.904250000000005</v>
+      </c>
+      <c r="E5">
+        <v>5.946788239166573E-7</v>
+      </c>
+      <c r="F5">
+        <v>8.6497963905296482E-9</v>
+      </c>
+      <c r="G5">
+        <v>1362.8661008898332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>45.408333333333317</v>
+      </c>
+      <c r="E6">
+        <v>5.9344013540119886E-7</v>
+      </c>
+      <c r="F6">
+        <v>3.2502290998997151E-9</v>
+      </c>
+      <c r="G6">
+        <v>9632.3321783824249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>45.488888888888894</v>
+      </c>
+      <c r="E7">
+        <v>5.9426209298598128E-7</v>
+      </c>
+      <c r="F7">
+        <v>3.2455905951376313E-9</v>
+      </c>
+      <c r="G7">
+        <v>9673.2639968538351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>20.861277777777772</v>
+      </c>
+      <c r="E8">
+        <v>5.9351092372463058E-7</v>
+      </c>
+      <c r="F8">
+        <v>8.6522718082802691E-9</v>
+      </c>
+      <c r="G8">
+        <v>1359.4113542088182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>20.894611111111118</v>
+      </c>
+      <c r="E9">
+        <v>5.9441688701753277E-7</v>
+      </c>
+      <c r="F9">
+        <v>8.6503520627100605E-9</v>
+      </c>
+      <c r="G9">
+        <v>1362.090792234774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>45.415277777777774</v>
+      </c>
+      <c r="E10">
+        <v>5.9351104004117442E-7</v>
+      </c>
+      <c r="F10">
+        <v>3.2498294817265421E-9</v>
+      </c>
+      <c r="G10">
+        <v>9635.8523814195742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>45.494444444444433</v>
+      </c>
+      <c r="E11">
+        <v>5.9431873643439085E-7</v>
+      </c>
+      <c r="F11">
+        <v>3.2452704616667109E-9</v>
+      </c>
+      <c r="G11">
+        <v>9676.0947628564682</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Na d line splitting/data_Na_d.xlsx
+++ b/Na d line splitting/data_Na_d.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER.DESKTOP-AET6VDV\Desktop\sem 5\optics lab\Optics lab codes and data\Na d line splitting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER.DESKTOP-AET6VDV\Desktop\sem 5\optics lab\Na_d_line\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C431B7-5857-4CA5-89D3-A0FF02DCE5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB49D11-B9FD-4EEB-8A04-13734CEA2CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Data set</t>
   </si>
@@ -149,10 +149,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="##0.0000E+0"/>
     <numFmt numFmtId="166" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,20 +204,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -234,24 +227,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="A1:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,120 +560,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="V3" s="15"/>
       <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -715,20 +710,20 @@
       <c r="O4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -774,15 +769,15 @@
         <f>M5+(1/180)*N5</f>
         <v>357.483</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="19">
         <f t="shared" ref="P5:P12" si="0">L5-F5</f>
         <v>41.739222222222224</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="19">
         <f>O5-I5</f>
         <v>41.705888888888921</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="19">
         <f t="shared" ref="R5:R12" si="1">(P5+Q5)/4</f>
         <v>20.861277777777786</v>
       </c>
@@ -790,26 +785,26 @@
         <f>0.001*SIN(RADIANS(R5))/600</f>
         <v>5.9351092372463101E-7</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="14">
         <f>RADIANS(R6-R5)/(S6-S5)</f>
         <v>642183.95527029363</v>
       </c>
-      <c r="U5" s="7">
+      <c r="V5" s="7">
         <f>1000 * 600/(COS(RADIANS(R5)))</f>
         <v>642092.12085071811</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <f>COS(RADIANS(R5))/(1*600*1000*180)</f>
         <v>8.6522718082802691E-9</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <f>(1*600*1000*(TAN(RADIANS(R5))))/(180*COS(RADIANS(R5)))</f>
         <v>1359.4113542088191</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -853,15 +848,15 @@
         <f t="shared" ref="O6:O12" si="5">M6+(1/180)*N6</f>
         <v>357.50522222222224</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="19">
         <f t="shared" si="0"/>
         <v>41.827777777777783</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="19">
         <f>O6-I6</f>
         <v>41.789222222222236</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="19">
         <f t="shared" si="1"/>
         <v>20.904250000000005</v>
       </c>
@@ -869,23 +864,23 @@
         <f>0.001*SIN(RADIANS(R6))/600</f>
         <v>5.946788239166573E-7</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="7">
+      <c r="T6" s="14"/>
+      <c r="V6" s="7">
         <f>1000 * 600/(COS(RADIANS(R6)))</f>
         <v>642275.87618572556</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <f>COS(RADIANS(R6))/(1*600*1000*180)</f>
         <v>8.6497963905296482E-9</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <f>(1*600*1000*(TAN(RADIANS(R6))))/(180*COS(RADIANS(R6)))</f>
         <v>1362.8661008898332</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -931,15 +926,15 @@
         <f t="shared" si="5"/>
         <v>22.083333333333332</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="19">
         <f t="shared" si="0"/>
         <v>90.794444444444437</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="19">
         <f>360+O7-I7</f>
         <v>90.838888888888846</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="19">
         <f t="shared" si="1"/>
         <v>45.408333333333317</v>
       </c>
@@ -947,26 +942,26 @@
         <f>0.001*SIN(RADIANS(R7))/1200</f>
         <v>5.9344013540119886E-7</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="14">
         <f>RADIANS(R8-R7)/(S8-S7)</f>
         <v>1710501.4921058179</v>
       </c>
-      <c r="U7" s="7">
+      <c r="V7" s="7">
         <f>(1000*2*600)/(COS(RADIANS(R7)))</f>
         <v>1709281.2182768811</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <f>COS(RADIANS(R7))/(2*600*1000*180)</f>
         <v>3.2502290998997151E-9</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <f>(2*600*1000*(TAN(RADIANS(R7))))/(180*COS(RADIANS(R7)))</f>
         <v>9632.3321783824249</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1010,15 +1005,15 @@
         <f t="shared" si="5"/>
         <v>22.155555555555555</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="19">
         <f t="shared" si="0"/>
         <v>90.949999999999989</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="19">
         <f>360+O8-I8</f>
         <v>91.005555555555588</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="19">
         <f t="shared" si="1"/>
         <v>45.488888888888894</v>
       </c>
@@ -1026,16 +1021,16 @@
         <f>0.001*SIN(RADIANS(R8))/1200</f>
         <v>5.9426209298598128E-7</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="7">
+      <c r="T8" s="14"/>
+      <c r="V8" s="7">
         <f>(1000*2*600)/(COS(RADIANS(R8)))</f>
         <v>1711724.0738491751</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <f>COS(RADIANS(R8))/(2*600*1000*180)</f>
         <v>3.2455905951376313E-9</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <f>(2*600*1000*(TAN(RADIANS(R8))))/(180*COS(RADIANS(R8)))</f>
         <v>9673.2639968538351</v>
       </c>
@@ -1044,7 +1039,7 @@
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1090,15 +1085,15 @@
         <f t="shared" si="5"/>
         <v>357.5218888888889</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="19">
         <f t="shared" si="0"/>
         <v>41.744777777777756</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="19">
         <f>O9-I9</f>
         <v>41.700333333333333</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="19">
         <f t="shared" si="1"/>
         <v>20.861277777777772</v>
       </c>
@@ -1106,26 +1101,26 @@
         <f>0.001*SIN(RADIANS(R9))/600</f>
         <v>5.9351092372463058E-7</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="14">
         <f>RADIANS(R10-R9)/(S10-S9)</f>
         <v>642163.34358093084</v>
       </c>
-      <c r="U9" s="7">
+      <c r="V9" s="7">
         <f>1000 * 600/(COS(RADIANS(R9)))</f>
         <v>642092.12085071811</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <f>COS(RADIANS(R9))/(1*600*1000*180)</f>
         <v>8.6522718082802691E-9</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <f>(1*600*1000*(TAN(RADIANS(R9))))/(180*COS(RADIANS(R9)))</f>
         <v>1359.4113542088182</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1169,15 +1164,15 @@
         <f t="shared" si="5"/>
         <v>357.5218888888889</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="19">
         <f t="shared" si="0"/>
         <v>41.805888888888887</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="19">
         <f>O10-I10</f>
         <v>41.772555555555584</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="19">
         <f t="shared" si="1"/>
         <v>20.894611111111118</v>
       </c>
@@ -1185,23 +1180,23 @@
         <f>0.001*SIN(RADIANS(R10))/600</f>
         <v>5.9441688701753277E-7</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="7">
+      <c r="T10" s="14"/>
+      <c r="V10" s="7">
         <f>1000 * 600/(COS(RADIANS(R10)))</f>
         <v>642234.61834628042</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <f>COS(RADIANS(R10))/(1*600*1000*180)</f>
         <v>8.6503520627100605E-9</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <f>(1*600*1000*(TAN(RADIANS(R10))))/(180*COS(RADIANS(R10)))</f>
         <v>1362.090792234774</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1247,15 +1242,15 @@
         <f t="shared" si="5"/>
         <v>22.083333333333332</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="19">
         <f t="shared" si="0"/>
         <v>90.805555555555557</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="19">
         <f>360+O11-I11</f>
         <v>90.855555555555554</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="19">
         <f t="shared" si="1"/>
         <v>45.415277777777774</v>
       </c>
@@ -1263,26 +1258,26 @@
         <f>0.001*SIN(RADIANS(R11))/1200</f>
         <v>5.9351104004117442E-7</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="14">
         <f>RADIANS(R12-R11)/(S12-S11)</f>
         <v>1710691.0502097309</v>
       </c>
-      <c r="U11" s="7">
+      <c r="V11" s="7">
         <f>(1000*2*600)/(COS(RADIANS(R11)))</f>
         <v>1709491.4015624125</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <f>COS(RADIANS(R11))/(2*600*1000*180)</f>
         <v>3.2498294817265421E-9</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <f>(2*600*1000*(TAN(RADIANS(R11))))/(180*COS(RADIANS(R11)))</f>
         <v>9635.8523814195742</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1326,15 +1321,15 @@
         <f t="shared" si="5"/>
         <v>22.15</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="19">
         <f t="shared" si="0"/>
         <v>90.966666666666669</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="19">
         <f>360+O12-I12</f>
         <v>91.011111111111063</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="19">
         <f t="shared" si="1"/>
         <v>45.494444444444433</v>
       </c>
@@ -1342,16 +1337,16 @@
         <f>0.001*SIN(RADIANS(R12))/1200</f>
         <v>5.9431873643439085E-7</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="7">
+      <c r="T12" s="14"/>
+      <c r="V12" s="7">
         <f>(1000*2*600)/(COS(RADIANS(R12)))</f>
         <v>1711892.9288569451</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <f>COS(RADIANS(R12))/(2*600*1000*180)</f>
         <v>3.2452704616667109E-9</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <f>(2*600*1000*(TAN(RADIANS(R12))))/(180*COS(RADIANS(R12)))</f>
         <v>9676.0947628564682</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="AB15" s="10">
-        <f>AVERAGE(U5:U6,U9:U10)</f>
+        <f>AVERAGE(V5:V6,V9:V10)</f>
         <v>642173.68405836052</v>
       </c>
     </row>
@@ -1492,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="AB16" s="10">
-        <f>AVERAGE(U7:U8,U11:U12)</f>
+        <f>AVERAGE(V7:V8,V11:V12)</f>
         <v>1710597.4056363534</v>
       </c>
     </row>
@@ -1565,7 +1560,7 @@
         <v>30</v>
       </c>
       <c r="Y19">
-        <f>MAX(V5,V7,V9,V11)</f>
+        <f>MAX(W5,W7,W9,W11)</f>
         <v>8.6522718082802691E-9</v>
       </c>
     </row>
@@ -1594,7 +1589,7 @@
         <v>31</v>
       </c>
       <c r="Y20">
-        <f>MAX(V6,V8,V10,V12)</f>
+        <f>MAX(W6,W8,W10,W12)</f>
         <v>8.6503520627100605E-9</v>
       </c>
     </row>
@@ -1610,7 +1605,7 @@
         <v>34</v>
       </c>
       <c r="Y22">
-        <f>AVERAGE(W5:W6,W9:W10)</f>
+        <f>AVERAGE(X5:X6,X9:X10)</f>
         <v>1360.9449003855611</v>
       </c>
     </row>
@@ -1619,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="Y23">
-        <f>AVERAGE(W7:W8,W11:W12)</f>
+        <f>AVERAGE(X7:X8,X11:X12)</f>
         <v>9654.385829878076</v>
       </c>
     </row>
@@ -1630,7 +1625,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P2:P4"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="T11:T12"/>
@@ -1647,30 +1652,22 @@
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P2:P4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729F84A8-7245-4635-AB72-CD52325E2EEA}">
-  <dimension ref="A1:G11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,233 +1675,266 @@
     <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="20">
         <v>20.861277777777786</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>5.9351092372463101E-7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
+        <f>RADIANS(D5-D4)/(E5-E4)</f>
+        <v>642183.95527029363</v>
+      </c>
+      <c r="G4" s="2">
         <v>8.6522718082802691E-9</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="2">
         <v>1359.4113542088191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="20">
         <v>20.904250000000005</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.946788239166573E-7</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="14"/>
+      <c r="G5" s="2">
         <v>8.6497963905296482E-9</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="2">
         <v>1362.8661008898332</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="20">
         <v>45.408333333333317</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>5.9344013540119886E-7</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
+        <f>RADIANS(D7-D6)/(E7-E6)</f>
+        <v>1710501.4921058179</v>
+      </c>
+      <c r="G6" s="2">
         <v>3.2502290998997151E-9</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="2">
         <v>9632.3321783824249</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="20">
         <v>45.488888888888894</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>5.9426209298598128E-7</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="14"/>
+      <c r="G7" s="2">
         <v>3.2455905951376313E-9</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="2">
         <v>9673.2639968538351</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="20">
         <v>20.861277777777772</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>5.9351092372463058E-7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="14">
+        <f>RADIANS(D9-D8)/(E9-E8)</f>
+        <v>642163.34358093084</v>
+      </c>
+      <c r="G8" s="2">
         <v>8.6522718082802691E-9</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="2">
         <v>1359.4113542088182</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="20">
         <v>20.894611111111118</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>5.9441688701753277E-7</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="14"/>
+      <c r="G9" s="2">
         <v>8.6503520627100605E-9</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="2">
         <v>1362.090792234774</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="20">
         <v>45.415277777777774</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5.9351104004117442E-7</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="14">
+        <f>RADIANS(D11-D10)/(E11-E10)</f>
+        <v>1710691.0502097309</v>
+      </c>
+      <c r="G10" s="2">
         <v>3.2498294817265421E-9</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="2">
         <v>9635.8523814195742</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="20">
         <v>45.494444444444433</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>5.9431873643439085E-7</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14"/>
+      <c r="G11" s="2">
         <v>3.2452704616667109E-9</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="2">
         <v>9676.0947628564682</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="H1:H3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>